--- a/Datos Almacenados/Otros/Daniel Yautibug.xlsx
+++ b/Datos Almacenados/Otros/Daniel Yautibug.xlsx
@@ -502,27 +502,27 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>16h/59m/05s</t>
+          <t>17h/01m/05s</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>33.03</t>
+          <t>32.99</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>50.67</t>
+          <t>85.39</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>1.70</t>
+          <t>1.65</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>17.53</t>
+          <t>31.36</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
